--- a/data/echoMRI/Kotz11262024.xlsx
+++ b/data/echoMRI/Kotz11262024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcaballero/Documents/GitHub/data/data/echoMRI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30549089-E68D-9948-B701-6CA6F872791B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6CC2BB-1FCE-BC4B-B8CC-6FD311032A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtractedScans" sheetId="1" r:id="rId1"/>
@@ -148,97 +148,97 @@
     <t>3726</t>
   </si>
   <si>
-    <t>08:11:52 Nov 26, 2024, 29; ems</t>
-  </si>
-  <si>
-    <t>08:13:30 Nov 26, 2024, 34; ems</t>
-  </si>
-  <si>
-    <t>08:14:47 Nov 26, 2024, 29; ems</t>
-  </si>
-  <si>
-    <t>08:16:00 Nov 26, 2024, 34; ems</t>
-  </si>
-  <si>
-    <t>08:17:15 Nov 26, 2024, 34; ems</t>
-  </si>
-  <si>
-    <t>08:18:38 Nov 26, 2024, 40; ems</t>
-  </si>
-  <si>
-    <t>08:20:06 Nov 26, 2024, 34; ems</t>
-  </si>
-  <si>
-    <t>08:21:20 Nov 26, 2024, 29; ems</t>
-  </si>
-  <si>
-    <t>08:22:28 Nov 26, 2024, 34; ems</t>
-  </si>
-  <si>
-    <t>08:23:59 Nov 26, 2024, 34; ems</t>
-  </si>
-  <si>
-    <t>08:25:25 Nov 26, 2024, 34; ems</t>
-  </si>
-  <si>
-    <t>08:26:41 Nov 26, 2024, 34; ems</t>
-  </si>
-  <si>
-    <t>08:27:57 Nov 26, 2024, 34; ems</t>
-  </si>
-  <si>
-    <t>08:29:15 Nov 26, 2024, 34; ems</t>
-  </si>
-  <si>
-    <t>08:31:11 Nov 26, 2024, 34; ems</t>
-  </si>
-  <si>
-    <t>08:32:24 Nov 26, 2024, 29; ems</t>
-  </si>
-  <si>
-    <t>08:33:34 Nov 26, 2024, 40; ems</t>
-  </si>
-  <si>
-    <t>08:34:51 Nov 26, 2024, 34; ems</t>
-  </si>
-  <si>
-    <t>08:36:16 Nov 26, 2024, 34; ems</t>
-  </si>
-  <si>
-    <t>08:37:32 Nov 26, 2024, 29; ems</t>
-  </si>
-  <si>
-    <t>08:38:45 Nov 26, 2024, 34; ems</t>
-  </si>
-  <si>
-    <t>08:40:03 Nov 26, 2024, 29; ems</t>
-  </si>
-  <si>
-    <t>08:41:21 Nov 26, 2024, 29; ems</t>
-  </si>
-  <si>
-    <t>08:42:33 Nov 26, 2024, 34; ems</t>
-  </si>
-  <si>
-    <t>08:44:31 Nov 26, 2024, 29; ems</t>
-  </si>
-  <si>
-    <t>08:46:02 Nov 26, 2024, 29; ems</t>
-  </si>
-  <si>
-    <t>08:47:56 Nov 26, 2024, 29; ems</t>
-  </si>
-  <si>
-    <t>08:49:09 Nov 26, 2024, 29; ems</t>
-  </si>
-  <si>
-    <t>08:50:38 Nov 26, 2024, 29; ems</t>
-  </si>
-  <si>
-    <t>08:51:49 Nov 26, 2024, 30; ems</t>
-  </si>
-  <si>
-    <t>08:53:45 Nov 26, 2024, 29; ems</t>
+    <t>08:11:52 Nov 26, 2024; 29; ems</t>
+  </si>
+  <si>
+    <t>08:13:30 Nov 26, 2024; 34; ems</t>
+  </si>
+  <si>
+    <t>08:14:47 Nov 26, 2024; 29; ems</t>
+  </si>
+  <si>
+    <t>08:16:00 Nov 26, 2024; 34; ems</t>
+  </si>
+  <si>
+    <t>08:17:15 Nov 26, 2024; 34; ems</t>
+  </si>
+  <si>
+    <t>08:18:38 Nov 26, 2024; 40; ems</t>
+  </si>
+  <si>
+    <t>08:20:06 Nov 26, 2024; 34; ems</t>
+  </si>
+  <si>
+    <t>08:21:20 Nov 26, 2024; 29; ems</t>
+  </si>
+  <si>
+    <t>08:22:28 Nov 26, 2024; 34; ems</t>
+  </si>
+  <si>
+    <t>08:23:59 Nov 26, 2024; 34; ems</t>
+  </si>
+  <si>
+    <t>08:25:25 Nov 26, 2024; 34; ems</t>
+  </si>
+  <si>
+    <t>08:26:41 Nov 26, 2024; 34; ems</t>
+  </si>
+  <si>
+    <t>08:27:57 Nov 26, 2024; 34; ems</t>
+  </si>
+  <si>
+    <t>08:29:15 Nov 26, 2024; 34; ems</t>
+  </si>
+  <si>
+    <t>08:31:11 Nov 26, 2024; 34; ems</t>
+  </si>
+  <si>
+    <t>08:32:24 Nov 26, 2024; 29; ems</t>
+  </si>
+  <si>
+    <t>08:33:34 Nov 26, 2024; 40; ems</t>
+  </si>
+  <si>
+    <t>08:34:51 Nov 26, 2024; 34; ems</t>
+  </si>
+  <si>
+    <t>08:36:16 Nov 26, 2024; 34; ems</t>
+  </si>
+  <si>
+    <t>08:37:32 Nov 26, 2024; 29; ems</t>
+  </si>
+  <si>
+    <t>08:38:45 Nov 26, 2024; 34; ems</t>
+  </si>
+  <si>
+    <t>08:40:03 Nov 26, 2024; 29; ems</t>
+  </si>
+  <si>
+    <t>08:41:21 Nov 26, 2024; 29; ems</t>
+  </si>
+  <si>
+    <t>08:42:33 Nov 26, 2024; 34; ems</t>
+  </si>
+  <si>
+    <t>08:44:31 Nov 26, 2024; 29; ems</t>
+  </si>
+  <si>
+    <t>08:46:02 Nov 26, 2024; 29; ems</t>
+  </si>
+  <si>
+    <t>08:47:56 Nov 26, 2024; 29; ems</t>
+  </si>
+  <si>
+    <t>08:49:09 Nov 26, 2024; 29; ems</t>
+  </si>
+  <si>
+    <t>08:50:38 Nov 26, 2024; 29; ems</t>
+  </si>
+  <si>
+    <t>08:51:49 Nov 26, 2024; 30; ems</t>
+  </si>
+  <si>
+    <t>08:53:45 Nov 26, 2024; 29; ems</t>
   </si>
 </sst>
 </file>
@@ -580,7 +580,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
